--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Myoc-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Myoc-Fzd10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,9 +82,6 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
   </si>
   <si>
     <t>Fzd10</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3278200000000001</v>
+        <v>1.027975333333333</v>
       </c>
       <c r="H2">
-        <v>0.9834600000000001</v>
+        <v>3.083926</v>
       </c>
       <c r="I2">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="J2">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.003092666666666667</v>
+        <v>0.085107</v>
       </c>
       <c r="N2">
-        <v>0.009278</v>
+        <v>0.255321</v>
       </c>
       <c r="O2">
-        <v>0.019469509380115</v>
+        <v>0.803017436594203</v>
       </c>
       <c r="P2">
-        <v>0.01946950938011499</v>
+        <v>0.8030174365942029</v>
       </c>
       <c r="Q2">
-        <v>0.001013837986666667</v>
+        <v>0.08748789669399999</v>
       </c>
       <c r="R2">
-        <v>0.009124541880000002</v>
+        <v>0.7873910702460001</v>
       </c>
       <c r="S2">
-        <v>0.0001858882734652159</v>
+        <v>0.02348666270240592</v>
       </c>
       <c r="T2">
-        <v>0.0001858882734652158</v>
+        <v>0.02348666270240592</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3278200000000001</v>
+        <v>1.027975333333333</v>
       </c>
       <c r="H3">
-        <v>0.9834600000000001</v>
+        <v>3.083926</v>
       </c>
       <c r="I3">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="J3">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,42 +614,42 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.085107</v>
+        <v>0.020877</v>
       </c>
       <c r="N3">
-        <v>0.255321</v>
+        <v>0.06263099999999999</v>
       </c>
       <c r="O3">
-        <v>0.5357808368657405</v>
+        <v>0.1969825634057971</v>
       </c>
       <c r="P3">
-        <v>0.5357808368657405</v>
+        <v>0.1969825634057971</v>
       </c>
       <c r="Q3">
-        <v>0.02789977674000001</v>
+        <v>0.02146104103399999</v>
       </c>
       <c r="R3">
-        <v>0.25109799066</v>
+        <v>0.193149369306</v>
       </c>
       <c r="S3">
-        <v>0.005115453747511572</v>
+        <v>0.005761348152773899</v>
       </c>
       <c r="T3">
-        <v>0.005115453747511572</v>
+        <v>0.005761348152773899</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3278200000000001</v>
+        <v>33.51817233333333</v>
       </c>
       <c r="H4">
-        <v>0.9834600000000001</v>
+        <v>100.554517</v>
       </c>
       <c r="I4">
-        <v>0.009547660900745198</v>
+        <v>0.9536608870489641</v>
       </c>
       <c r="J4">
-        <v>0.009547660900745198</v>
+        <v>0.953660887048964</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,42 +676,42 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.03969433333333334</v>
+        <v>0.085107</v>
       </c>
       <c r="N4">
-        <v>0.119083</v>
+        <v>0.255321</v>
       </c>
       <c r="O4">
-        <v>0.249890880094011</v>
+        <v>0.803017436594203</v>
       </c>
       <c r="P4">
-        <v>0.249890880094011</v>
+        <v>0.8030174365942029</v>
       </c>
       <c r="Q4">
-        <v>0.01301259635333334</v>
+        <v>2.852631092773</v>
       </c>
       <c r="R4">
-        <v>0.11711336718</v>
+        <v>25.673679834957</v>
       </c>
       <c r="S4">
-        <v>0.002385873385326396</v>
+        <v>0.7658063208982129</v>
       </c>
       <c r="T4">
-        <v>0.002385873385326396</v>
+        <v>0.7658063208982128</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3278200000000001</v>
+        <v>33.51817233333333</v>
       </c>
       <c r="H5">
-        <v>0.9834600000000001</v>
+        <v>100.554517</v>
       </c>
       <c r="I5">
-        <v>0.009547660900745198</v>
+        <v>0.9536608870489641</v>
       </c>
       <c r="J5">
-        <v>0.009547660900745198</v>
+        <v>0.953660887048964</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,42 +738,42 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.03095266666666667</v>
+        <v>0.020877</v>
       </c>
       <c r="N5">
-        <v>0.092858</v>
+        <v>0.06263099999999999</v>
       </c>
       <c r="O5">
-        <v>0.1948587736601335</v>
+        <v>0.1969825634057971</v>
       </c>
       <c r="P5">
-        <v>0.1948587736601334</v>
+        <v>0.1969825634057971</v>
       </c>
       <c r="Q5">
-        <v>0.01014690318666667</v>
+        <v>0.6997588838029999</v>
       </c>
       <c r="R5">
-        <v>0.09132212868</v>
+        <v>6.297829954227</v>
       </c>
       <c r="S5">
-        <v>0.001860445494442015</v>
+        <v>0.1878545661507512</v>
       </c>
       <c r="T5">
-        <v>0.001860445494442014</v>
+        <v>0.1878545661507512</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,60 +782,60 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.51817233333333</v>
+        <v>0.6006983333333333</v>
       </c>
       <c r="H6">
-        <v>100.554517</v>
+        <v>1.802095</v>
       </c>
       <c r="I6">
-        <v>0.9762068923537492</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="J6">
-        <v>0.9762068923537494</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.003092666666666667</v>
+        <v>0.085107</v>
       </c>
       <c r="N6">
-        <v>0.009278</v>
+        <v>0.255321</v>
       </c>
       <c r="O6">
-        <v>0.019469509380115</v>
+        <v>0.803017436594203</v>
       </c>
       <c r="P6">
-        <v>0.01946950938011499</v>
+        <v>0.8030174365942029</v>
       </c>
       <c r="Q6">
-        <v>0.1036605343028889</v>
+        <v>0.051123633055</v>
       </c>
       <c r="R6">
-        <v>0.9329448087260001</v>
+        <v>0.4601126974950001</v>
       </c>
       <c r="S6">
-        <v>0.01900626924761423</v>
+        <v>0.01372445299358422</v>
       </c>
       <c r="T6">
-        <v>0.01900626924761423</v>
+        <v>0.01372445299358421</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.51817233333333</v>
+        <v>0.6006983333333333</v>
       </c>
       <c r="H7">
-        <v>100.554517</v>
+        <v>1.802095</v>
       </c>
       <c r="I7">
-        <v>0.9762068923537492</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="J7">
-        <v>0.9762068923537494</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,648 +862,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.085107</v>
+        <v>0.020877</v>
       </c>
       <c r="N7">
-        <v>0.255321</v>
+        <v>0.06263099999999999</v>
       </c>
       <c r="O7">
-        <v>0.5357808368657405</v>
+        <v>0.1969825634057971</v>
       </c>
       <c r="P7">
-        <v>0.5357808368657405</v>
+        <v>0.1969825634057971</v>
       </c>
       <c r="Q7">
-        <v>2.852631092773</v>
+        <v>0.012540779105</v>
       </c>
       <c r="R7">
-        <v>25.673679834957</v>
+        <v>0.112867011945</v>
       </c>
       <c r="S7">
-        <v>0.5230329457393956</v>
+        <v>0.003366649102271935</v>
       </c>
       <c r="T7">
-        <v>0.5230329457393957</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>33.51817233333333</v>
-      </c>
-      <c r="H8">
-        <v>100.554517</v>
-      </c>
-      <c r="I8">
-        <v>0.9762068923537492</v>
-      </c>
-      <c r="J8">
-        <v>0.9762068923537494</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.03969433333333334</v>
-      </c>
-      <c r="N8">
-        <v>0.119083</v>
-      </c>
-      <c r="O8">
-        <v>0.249890880094011</v>
-      </c>
-      <c r="P8">
-        <v>0.249890880094011</v>
-      </c>
-      <c r="Q8">
-        <v>1.330481505323445</v>
-      </c>
-      <c r="R8">
-        <v>11.974333547911</v>
-      </c>
-      <c r="S8">
-        <v>0.2439451994841179</v>
-      </c>
-      <c r="T8">
-        <v>0.2439451994841179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>33.51817233333333</v>
-      </c>
-      <c r="H9">
-        <v>100.554517</v>
-      </c>
-      <c r="I9">
-        <v>0.9762068923537492</v>
-      </c>
-      <c r="J9">
-        <v>0.9762068923537494</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.03095266666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.092858</v>
-      </c>
-      <c r="O9">
-        <v>0.1948587736601335</v>
-      </c>
-      <c r="P9">
-        <v>0.1948587736601334</v>
-      </c>
-      <c r="Q9">
-        <v>1.037476815509556</v>
-      </c>
-      <c r="R9">
-        <v>9.337291339586001</v>
-      </c>
-      <c r="S9">
-        <v>0.1902224778826215</v>
-      </c>
-      <c r="T9">
-        <v>0.1902224778826215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.023649</v>
-      </c>
-      <c r="H10">
-        <v>0.070947</v>
-      </c>
-      <c r="I10">
-        <v>0.0006887701563105459</v>
-      </c>
-      <c r="J10">
-        <v>0.0006887701563105459</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.003092666666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.009278</v>
-      </c>
-      <c r="O10">
-        <v>0.019469509380115</v>
-      </c>
-      <c r="P10">
-        <v>0.01946950938011499</v>
-      </c>
-      <c r="Q10">
-        <v>7.313847400000001E-05</v>
-      </c>
-      <c r="R10">
-        <v>0.0006582462659999999</v>
-      </c>
-      <c r="S10">
-        <v>1.341001701903145E-05</v>
-      </c>
-      <c r="T10">
-        <v>1.341001701903144E-05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.023649</v>
-      </c>
-      <c r="H11">
-        <v>0.070947</v>
-      </c>
-      <c r="I11">
-        <v>0.0006887701563105459</v>
-      </c>
-      <c r="J11">
-        <v>0.0006887701563105459</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.085107</v>
-      </c>
-      <c r="N11">
-        <v>0.255321</v>
-      </c>
-      <c r="O11">
-        <v>0.5357808368657405</v>
-      </c>
-      <c r="P11">
-        <v>0.5357808368657405</v>
-      </c>
-      <c r="Q11">
-        <v>0.002012695443</v>
-      </c>
-      <c r="R11">
-        <v>0.018114258987</v>
-      </c>
-      <c r="S11">
-        <v>0.0003690298507562112</v>
-      </c>
-      <c r="T11">
-        <v>0.0003690298507562112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.023649</v>
-      </c>
-      <c r="H12">
-        <v>0.070947</v>
-      </c>
-      <c r="I12">
-        <v>0.0006887701563105459</v>
-      </c>
-      <c r="J12">
-        <v>0.0006887701563105459</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.03969433333333334</v>
-      </c>
-      <c r="N12">
-        <v>0.119083</v>
-      </c>
-      <c r="O12">
-        <v>0.249890880094011</v>
-      </c>
-      <c r="P12">
-        <v>0.249890880094011</v>
-      </c>
-      <c r="Q12">
-        <v>0.0009387312890000001</v>
-      </c>
-      <c r="R12">
-        <v>0.008448581601</v>
-      </c>
-      <c r="S12">
-        <v>0.0001721173805429319</v>
-      </c>
-      <c r="T12">
-        <v>0.0001721173805429318</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.023649</v>
-      </c>
-      <c r="H13">
-        <v>0.070947</v>
-      </c>
-      <c r="I13">
-        <v>0.0006887701563105459</v>
-      </c>
-      <c r="J13">
-        <v>0.0006887701563105459</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.03095266666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.092858</v>
-      </c>
-      <c r="O13">
-        <v>0.1948587736601335</v>
-      </c>
-      <c r="P13">
-        <v>0.1948587736601334</v>
-      </c>
-      <c r="Q13">
-        <v>0.000731999614</v>
-      </c>
-      <c r="R13">
-        <v>0.006587996525999999</v>
-      </c>
-      <c r="S13">
-        <v>0.0001342129079923714</v>
-      </c>
-      <c r="T13">
-        <v>0.0001342129079923714</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.4654700000000001</v>
-      </c>
-      <c r="H14">
-        <v>1.39641</v>
-      </c>
-      <c r="I14">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="J14">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.003092666666666667</v>
-      </c>
-      <c r="N14">
-        <v>0.009278</v>
-      </c>
-      <c r="O14">
-        <v>0.019469509380115</v>
-      </c>
-      <c r="P14">
-        <v>0.01946950938011499</v>
-      </c>
-      <c r="Q14">
-        <v>0.001439543553333334</v>
-      </c>
-      <c r="R14">
-        <v>0.01295589198</v>
-      </c>
-      <c r="S14">
-        <v>0.0002639418420165152</v>
-      </c>
-      <c r="T14">
-        <v>0.0002639418420165152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.4654700000000001</v>
-      </c>
-      <c r="H15">
-        <v>1.39641</v>
-      </c>
-      <c r="I15">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="J15">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.085107</v>
-      </c>
-      <c r="N15">
-        <v>0.255321</v>
-      </c>
-      <c r="O15">
-        <v>0.5357808368657405</v>
-      </c>
-      <c r="P15">
-        <v>0.5357808368657405</v>
-      </c>
-      <c r="Q15">
-        <v>0.03961475529</v>
-      </c>
-      <c r="R15">
-        <v>0.3565327976100001</v>
-      </c>
-      <c r="S15">
-        <v>0.007263407528077029</v>
-      </c>
-      <c r="T15">
-        <v>0.00726340752807703</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.4654700000000001</v>
-      </c>
-      <c r="H16">
-        <v>1.39641</v>
-      </c>
-      <c r="I16">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="J16">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.03969433333333334</v>
-      </c>
-      <c r="N16">
-        <v>0.119083</v>
-      </c>
-      <c r="O16">
-        <v>0.249890880094011</v>
-      </c>
-      <c r="P16">
-        <v>0.249890880094011</v>
-      </c>
-      <c r="Q16">
-        <v>0.01847652133666667</v>
-      </c>
-      <c r="R16">
-        <v>0.16628869203</v>
-      </c>
-      <c r="S16">
-        <v>0.003387689844023785</v>
-      </c>
-      <c r="T16">
-        <v>0.003387689844023785</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.4654700000000001</v>
-      </c>
-      <c r="H17">
-        <v>1.39641</v>
-      </c>
-      <c r="I17">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="J17">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.03095266666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.092858</v>
-      </c>
-      <c r="O17">
-        <v>0.1948587736601335</v>
-      </c>
-      <c r="P17">
-        <v>0.1948587736601334</v>
-      </c>
-      <c r="Q17">
-        <v>0.01440753775333333</v>
-      </c>
-      <c r="R17">
-        <v>0.12966783978</v>
-      </c>
-      <c r="S17">
-        <v>0.002641637375077556</v>
-      </c>
-      <c r="T17">
-        <v>0.002641637375077556</v>
+        <v>0.003366649102271935</v>
       </c>
     </row>
   </sheetData>
